--- a/BackTest/2020-01-15 BackTest BTT.xlsx
+++ b/BackTest/2020-01-15 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N422"/>
+  <dimension ref="A1:M422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-24966651.61265028</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-23084450.16115028</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.3524</v>
       </c>
       <c r="J3" t="n">
         <v>0.3524</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.3524</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,21 @@
         <v>-23078988.54975028</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>0.3532</v>
-      </c>
-      <c r="K4" t="n">
         <v>0.3524</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +560,21 @@
         <v>-23767184.92175028</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>0.3578</v>
-      </c>
-      <c r="K5" t="n">
         <v>0.3524</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +599,15 @@
         <v>-23716051.80665028</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.3558</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.3558</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +632,15 @@
         <v>-23714287.03765028</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.3562</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.3558</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -706,22 +667,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>0.3558</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,16 +700,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -784,16 +733,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -820,16 +766,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -856,16 +799,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -892,16 +832,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,16 +865,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -964,16 +898,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1000,16 +931,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1036,16 +964,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1072,16 +997,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1108,16 +1030,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1144,16 +1063,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1180,16 +1096,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1216,16 +1129,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1252,16 +1162,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1288,16 +1195,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1324,16 +1228,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1360,16 +1261,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1396,16 +1294,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1432,16 +1327,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1468,16 +1360,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1504,16 +1393,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1540,16 +1426,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1576,16 +1459,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1612,16 +1492,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1648,16 +1525,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1684,16 +1558,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1718,18 +1589,15 @@
         <v>52801208.88225808</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1754,18 +1622,15 @@
         <v>60350263.05425808</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1790,18 +1655,15 @@
         <v>60350263.05425808</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1826,18 +1688,15 @@
         <v>57834061.21255808</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1862,18 +1721,15 @@
         <v>60158564.52355807</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1900,16 +1756,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1936,16 +1789,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1972,16 +1822,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2006,18 +1853,15 @@
         <v>70216132.46145807</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2042,18 +1886,15 @@
         <v>70216132.46145807</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2078,18 +1919,15 @@
         <v>64414137.25685807</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2116,16 +1954,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2152,16 +1987,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2188,16 +2020,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2224,16 +2053,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2260,16 +2086,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2296,16 +2119,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2332,16 +2152,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2368,16 +2185,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2404,16 +2218,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2440,16 +2251,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2476,16 +2284,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2512,16 +2317,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2548,16 +2350,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2584,16 +2383,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2620,16 +2416,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2656,16 +2449,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2692,16 +2482,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2728,16 +2515,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2764,16 +2548,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2800,16 +2581,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2836,16 +2614,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2872,16 +2647,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2908,16 +2680,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2944,16 +2713,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2980,16 +2746,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3016,16 +2779,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3052,16 +2812,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3088,16 +2845,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3124,16 +2878,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3160,16 +2911,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3196,16 +2944,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3232,16 +2977,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3268,16 +3010,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3304,16 +3043,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3340,16 +3076,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3376,16 +3109,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3412,16 +3142,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3448,16 +3175,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3484,16 +3208,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3520,16 +3241,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3556,16 +3274,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3592,16 +3307,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3628,16 +3340,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3664,16 +3373,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3700,16 +3406,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3736,16 +3439,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3772,16 +3472,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3808,16 +3505,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3844,16 +3538,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3880,16 +3571,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3916,16 +3604,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3952,16 +3637,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3988,16 +3670,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4024,16 +3703,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4060,16 +3736,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4096,16 +3769,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4132,16 +3802,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4168,16 +3835,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4204,16 +3868,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4240,16 +3901,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4276,16 +3934,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4312,16 +3967,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4348,16 +4000,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4384,16 +4033,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4420,16 +4066,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4456,16 +4099,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4492,16 +4132,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4528,16 +4165,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4564,16 +4198,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4600,16 +4231,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4636,16 +4264,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4670,18 +4295,15 @@
         <v>76594530.11023556</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4708,16 +4330,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4742,18 +4361,15 @@
         <v>76593222.23683555</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4778,18 +4394,15 @@
         <v>79549853.09023556</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4814,18 +4427,15 @@
         <v>74999193.89463556</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4850,18 +4460,15 @@
         <v>76129083.84963556</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4888,16 +4495,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4924,16 +4528,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4960,16 +4561,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4996,16 +4594,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5032,16 +4627,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5068,16 +4660,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5104,16 +4693,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5140,16 +4726,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5176,16 +4759,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5212,16 +4792,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5248,16 +4825,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5284,16 +4858,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5320,16 +4891,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5356,16 +4924,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5392,16 +4957,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5428,16 +4990,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5464,16 +5023,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5500,16 +5056,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5536,16 +5089,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5572,16 +5122,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5608,16 +5155,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5644,16 +5188,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5680,16 +5221,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5716,16 +5254,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5752,16 +5287,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5788,16 +5320,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5824,16 +5353,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5860,16 +5386,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5896,16 +5419,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5932,16 +5452,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5968,16 +5485,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6004,16 +5518,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6040,16 +5551,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6076,16 +5584,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6112,16 +5617,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6148,16 +5650,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6184,16 +5683,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6220,16 +5716,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6256,16 +5749,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6292,16 +5782,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6328,16 +5815,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6364,16 +5848,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6398,18 +5879,15 @@
         <v>49816199.98543382</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6436,16 +5914,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6470,18 +5945,15 @@
         <v>10398703.33623382</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6508,16 +5980,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6544,16 +6013,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6580,16 +6046,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6616,16 +6079,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6652,16 +6112,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6688,16 +6145,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6724,16 +6178,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6760,16 +6211,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6796,16 +6244,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6832,16 +6277,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6868,16 +6310,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6904,16 +6343,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6940,16 +6376,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6976,16 +6409,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7012,16 +6442,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7048,16 +6475,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7084,16 +6508,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7120,16 +6541,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7156,16 +6574,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7192,16 +6607,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7228,16 +6640,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7264,16 +6673,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7300,16 +6706,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7336,16 +6739,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7372,16 +6772,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7408,16 +6805,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7444,16 +6838,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7480,16 +6871,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7516,16 +6904,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7552,16 +6937,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7588,16 +6970,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7624,16 +7003,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7660,16 +7036,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7696,16 +7069,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7732,16 +7102,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7768,16 +7135,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7804,16 +7168,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7840,16 +7201,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7876,16 +7234,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7912,16 +7267,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7948,16 +7300,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7984,16 +7333,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8020,16 +7366,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8056,16 +7399,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8092,16 +7432,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8128,16 +7465,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8164,16 +7498,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8200,16 +7531,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8236,16 +7564,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8272,16 +7597,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8308,16 +7630,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8344,16 +7663,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8380,16 +7696,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8416,16 +7729,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8452,16 +7762,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8488,16 +7795,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8522,18 +7826,15 @@
         <v>51370517.18343382</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8558,18 +7859,15 @@
         <v>51370517.18343382</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8594,18 +7892,15 @@
         <v>49670519.88923382</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8630,18 +7925,15 @@
         <v>48375895.67553382</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8668,16 +7960,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8704,16 +7993,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8740,16 +8026,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8776,16 +8059,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8812,16 +8092,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8848,16 +8125,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8884,16 +8158,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8920,16 +8191,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8956,16 +8224,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8992,16 +8257,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9028,16 +8290,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9064,16 +8323,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9100,16 +8356,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9136,16 +8389,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9172,16 +8422,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9208,16 +8455,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9244,16 +8488,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9280,16 +8521,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9316,16 +8554,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9352,16 +8587,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9388,16 +8620,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9424,16 +8653,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9460,16 +8686,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9496,16 +8719,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9532,16 +8752,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9568,16 +8785,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9604,16 +8818,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9640,16 +8851,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9676,16 +8884,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9712,16 +8917,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9748,16 +8950,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9784,16 +8983,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9820,16 +9016,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9856,16 +9049,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9892,16 +9082,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9928,16 +9115,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9964,16 +9148,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10000,16 +9181,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10036,16 +9214,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10072,16 +9247,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10108,16 +9280,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10144,16 +9313,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10180,16 +9346,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10216,16 +9379,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10252,16 +9412,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10288,16 +9445,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10324,16 +9478,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10360,16 +9511,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10396,16 +9544,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10432,16 +9577,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10468,16 +9610,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10504,16 +9643,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10540,16 +9676,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10576,16 +9709,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10612,16 +9742,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10648,16 +9775,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10684,16 +9808,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10720,16 +9841,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10756,16 +9874,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10792,16 +9907,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10828,16 +9940,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10864,16 +9973,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10900,16 +10006,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10936,16 +10039,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10972,16 +10072,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11008,16 +10105,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11044,16 +10138,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11080,16 +10171,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11116,16 +10204,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11152,16 +10237,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11188,16 +10270,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11224,16 +10303,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11260,16 +10336,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11296,16 +10369,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11332,16 +10402,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11368,16 +10435,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11404,16 +10468,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11440,16 +10501,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11476,16 +10534,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11512,16 +10567,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11548,16 +10600,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11584,16 +10633,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11620,16 +10666,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11656,16 +10699,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11692,16 +10732,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11728,16 +10765,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11764,16 +10798,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11800,16 +10831,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11836,16 +10864,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11872,16 +10897,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11908,16 +10930,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11944,16 +10963,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11980,16 +10996,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12016,16 +11029,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12052,16 +11062,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12088,16 +11095,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12124,16 +11128,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12160,16 +11161,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12196,16 +11194,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12232,16 +11227,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12268,16 +11260,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12304,16 +11293,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12340,16 +11326,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12376,16 +11359,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12412,16 +11392,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12448,16 +11425,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12484,16 +11458,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12520,16 +11491,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12556,16 +11524,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12592,16 +11557,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12628,16 +11590,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12664,16 +11623,13 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12700,16 +11656,13 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -12736,16 +11689,13 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -12772,16 +11722,13 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -12808,16 +11755,13 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -12844,16 +11788,13 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -12880,16 +11821,13 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -12916,16 +11854,13 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -12952,16 +11887,13 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -12988,16 +11920,13 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13024,16 +11953,13 @@
       <c r="H350" t="n">
         <v>0</v>
       </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13060,16 +11986,13 @@
       <c r="H351" t="n">
         <v>0</v>
       </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13096,16 +12019,13 @@
       <c r="H352" t="n">
         <v>0</v>
       </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13132,16 +12052,13 @@
       <c r="H353" t="n">
         <v>0</v>
       </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13168,16 +12085,13 @@
       <c r="H354" t="n">
         <v>0</v>
       </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13204,16 +12118,13 @@
       <c r="H355" t="n">
         <v>0</v>
       </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13240,16 +12151,13 @@
       <c r="H356" t="n">
         <v>0</v>
       </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13276,16 +12184,13 @@
       <c r="H357" t="n">
         <v>0</v>
       </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13312,16 +12217,13 @@
       <c r="H358" t="n">
         <v>0</v>
       </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13348,16 +12250,13 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13384,16 +12283,13 @@
       <c r="H360" t="n">
         <v>0</v>
       </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -13420,16 +12316,13 @@
       <c r="H361" t="n">
         <v>0</v>
       </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -13456,16 +12349,13 @@
       <c r="H362" t="n">
         <v>0</v>
       </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -13492,16 +12382,13 @@
       <c r="H363" t="n">
         <v>0</v>
       </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -13528,16 +12415,13 @@
       <c r="H364" t="n">
         <v>0</v>
       </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -13564,16 +12448,13 @@
       <c r="H365" t="n">
         <v>0</v>
       </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -13600,16 +12481,13 @@
       <c r="H366" t="n">
         <v>0</v>
       </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
-      <c r="M366" t="n">
-        <v>1</v>
-      </c>
-      <c r="N366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -13636,16 +12514,13 @@
       <c r="H367" t="n">
         <v>0</v>
       </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
-      <c r="M367" t="n">
-        <v>1</v>
-      </c>
-      <c r="N367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -13672,16 +12547,13 @@
       <c r="H368" t="n">
         <v>0</v>
       </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
-      <c r="M368" t="n">
-        <v>1</v>
-      </c>
-      <c r="N368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -13708,16 +12580,13 @@
       <c r="H369" t="n">
         <v>0</v>
       </c>
-      <c r="I369" t="n">
-        <v>0</v>
-      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
-      <c r="M369" t="n">
-        <v>1</v>
-      </c>
-      <c r="N369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -13744,16 +12613,13 @@
       <c r="H370" t="n">
         <v>0</v>
       </c>
-      <c r="I370" t="n">
-        <v>0</v>
-      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
-      <c r="M370" t="n">
-        <v>1</v>
-      </c>
-      <c r="N370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -13780,16 +12646,13 @@
       <c r="H371" t="n">
         <v>0</v>
       </c>
-      <c r="I371" t="n">
-        <v>0</v>
-      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
-      <c r="M371" t="n">
-        <v>1</v>
-      </c>
-      <c r="N371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -13816,16 +12679,13 @@
       <c r="H372" t="n">
         <v>0</v>
       </c>
-      <c r="I372" t="n">
-        <v>0</v>
-      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
-      <c r="M372" t="n">
-        <v>1</v>
-      </c>
-      <c r="N372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -13852,16 +12712,13 @@
       <c r="H373" t="n">
         <v>0</v>
       </c>
-      <c r="I373" t="n">
-        <v>0</v>
-      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
-      <c r="M373" t="n">
-        <v>1</v>
-      </c>
-      <c r="N373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -13888,16 +12745,13 @@
       <c r="H374" t="n">
         <v>0</v>
       </c>
-      <c r="I374" t="n">
-        <v>0</v>
-      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
-      <c r="M374" t="n">
-        <v>1</v>
-      </c>
-      <c r="N374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -13924,16 +12778,13 @@
       <c r="H375" t="n">
         <v>0</v>
       </c>
-      <c r="I375" t="n">
-        <v>0</v>
-      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
-      <c r="M375" t="n">
-        <v>1</v>
-      </c>
-      <c r="N375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -13960,16 +12811,13 @@
       <c r="H376" t="n">
         <v>0</v>
       </c>
-      <c r="I376" t="n">
-        <v>0</v>
-      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
-      <c r="M376" t="n">
-        <v>1</v>
-      </c>
-      <c r="N376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -13996,16 +12844,13 @@
       <c r="H377" t="n">
         <v>0</v>
       </c>
-      <c r="I377" t="n">
-        <v>0</v>
-      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
-      <c r="M377" t="n">
-        <v>1</v>
-      </c>
-      <c r="N377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -14032,16 +12877,13 @@
       <c r="H378" t="n">
         <v>0</v>
       </c>
-      <c r="I378" t="n">
-        <v>0</v>
-      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
-      <c r="M378" t="n">
-        <v>1</v>
-      </c>
-      <c r="N378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -14068,16 +12910,13 @@
       <c r="H379" t="n">
         <v>0</v>
       </c>
-      <c r="I379" t="n">
-        <v>0</v>
-      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
-      <c r="M379" t="n">
-        <v>1</v>
-      </c>
-      <c r="N379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -14104,16 +12943,13 @@
       <c r="H380" t="n">
         <v>0</v>
       </c>
-      <c r="I380" t="n">
-        <v>0</v>
-      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
-      <c r="M380" t="n">
-        <v>1</v>
-      </c>
-      <c r="N380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -14140,16 +12976,13 @@
       <c r="H381" t="n">
         <v>0</v>
       </c>
-      <c r="I381" t="n">
-        <v>0</v>
-      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
-      <c r="M381" t="n">
-        <v>1</v>
-      </c>
-      <c r="N381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -14176,16 +13009,13 @@
       <c r="H382" t="n">
         <v>0</v>
       </c>
-      <c r="I382" t="n">
-        <v>0</v>
-      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
-      <c r="M382" t="n">
-        <v>1</v>
-      </c>
-      <c r="N382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -14212,16 +13042,13 @@
       <c r="H383" t="n">
         <v>0</v>
       </c>
-      <c r="I383" t="n">
-        <v>0</v>
-      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
-      <c r="M383" t="n">
-        <v>1</v>
-      </c>
-      <c r="N383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -14248,16 +13075,13 @@
       <c r="H384" t="n">
         <v>0</v>
       </c>
-      <c r="I384" t="n">
-        <v>0</v>
-      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
-      <c r="M384" t="n">
-        <v>1</v>
-      </c>
-      <c r="N384" t="inlineStr"/>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -14284,16 +13108,13 @@
       <c r="H385" t="n">
         <v>0</v>
       </c>
-      <c r="I385" t="n">
-        <v>0</v>
-      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
-      <c r="M385" t="n">
-        <v>1</v>
-      </c>
-      <c r="N385" t="inlineStr"/>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -14320,16 +13141,13 @@
       <c r="H386" t="n">
         <v>0</v>
       </c>
-      <c r="I386" t="n">
-        <v>0</v>
-      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
-      <c r="M386" t="n">
-        <v>1</v>
-      </c>
-      <c r="N386" t="inlineStr"/>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -14356,16 +13174,13 @@
       <c r="H387" t="n">
         <v>0</v>
       </c>
-      <c r="I387" t="n">
-        <v>0</v>
-      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
-      <c r="M387" t="n">
-        <v>1</v>
-      </c>
-      <c r="N387" t="inlineStr"/>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -14392,16 +13207,13 @@
       <c r="H388" t="n">
         <v>0</v>
       </c>
-      <c r="I388" t="n">
-        <v>0</v>
-      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
-      <c r="M388" t="n">
-        <v>1</v>
-      </c>
-      <c r="N388" t="inlineStr"/>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -14428,16 +13240,13 @@
       <c r="H389" t="n">
         <v>0</v>
       </c>
-      <c r="I389" t="n">
-        <v>0</v>
-      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
-      <c r="M389" t="n">
-        <v>1</v>
-      </c>
-      <c r="N389" t="inlineStr"/>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -14464,16 +13273,13 @@
       <c r="H390" t="n">
         <v>0</v>
       </c>
-      <c r="I390" t="n">
-        <v>0</v>
-      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
-      <c r="M390" t="n">
-        <v>1</v>
-      </c>
-      <c r="N390" t="inlineStr"/>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -14500,16 +13306,13 @@
       <c r="H391" t="n">
         <v>0</v>
       </c>
-      <c r="I391" t="n">
-        <v>0</v>
-      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
-      <c r="M391" t="n">
-        <v>1</v>
-      </c>
-      <c r="N391" t="inlineStr"/>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -14536,16 +13339,13 @@
       <c r="H392" t="n">
         <v>0</v>
       </c>
-      <c r="I392" t="n">
-        <v>0</v>
-      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
-      <c r="M392" t="n">
-        <v>1</v>
-      </c>
-      <c r="N392" t="inlineStr"/>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -14572,16 +13372,13 @@
       <c r="H393" t="n">
         <v>0</v>
       </c>
-      <c r="I393" t="n">
-        <v>0</v>
-      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
-      <c r="M393" t="n">
-        <v>1</v>
-      </c>
-      <c r="N393" t="inlineStr"/>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -14608,16 +13405,13 @@
       <c r="H394" t="n">
         <v>0</v>
       </c>
-      <c r="I394" t="n">
-        <v>0</v>
-      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
-      <c r="M394" t="n">
-        <v>1</v>
-      </c>
-      <c r="N394" t="inlineStr"/>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -14644,16 +13438,13 @@
       <c r="H395" t="n">
         <v>0</v>
       </c>
-      <c r="I395" t="n">
-        <v>0</v>
-      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
-      <c r="M395" t="n">
-        <v>1</v>
-      </c>
-      <c r="N395" t="inlineStr"/>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -14680,16 +13471,13 @@
       <c r="H396" t="n">
         <v>0</v>
       </c>
-      <c r="I396" t="n">
-        <v>0</v>
-      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
-      <c r="M396" t="n">
-        <v>1</v>
-      </c>
-      <c r="N396" t="inlineStr"/>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -14716,16 +13504,13 @@
       <c r="H397" t="n">
         <v>0</v>
       </c>
-      <c r="I397" t="n">
-        <v>0</v>
-      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
-      <c r="M397" t="n">
-        <v>1</v>
-      </c>
-      <c r="N397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -14752,16 +13537,13 @@
       <c r="H398" t="n">
         <v>0</v>
       </c>
-      <c r="I398" t="n">
-        <v>0</v>
-      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
-      <c r="M398" t="n">
-        <v>1</v>
-      </c>
-      <c r="N398" t="inlineStr"/>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -14788,16 +13570,13 @@
       <c r="H399" t="n">
         <v>0</v>
       </c>
-      <c r="I399" t="n">
-        <v>0</v>
-      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
-      <c r="M399" t="n">
-        <v>1</v>
-      </c>
-      <c r="N399" t="inlineStr"/>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -14824,16 +13603,13 @@
       <c r="H400" t="n">
         <v>0</v>
       </c>
-      <c r="I400" t="n">
-        <v>0</v>
-      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
-      <c r="M400" t="n">
-        <v>1</v>
-      </c>
-      <c r="N400" t="inlineStr"/>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -14860,16 +13636,13 @@
       <c r="H401" t="n">
         <v>0</v>
       </c>
-      <c r="I401" t="n">
-        <v>0</v>
-      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
-      <c r="M401" t="n">
-        <v>1</v>
-      </c>
-      <c r="N401" t="inlineStr"/>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -14896,16 +13669,13 @@
       <c r="H402" t="n">
         <v>0</v>
       </c>
-      <c r="I402" t="n">
-        <v>0</v>
-      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
-      <c r="M402" t="n">
-        <v>1</v>
-      </c>
-      <c r="N402" t="inlineStr"/>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -14932,16 +13702,13 @@
       <c r="H403" t="n">
         <v>0</v>
       </c>
-      <c r="I403" t="n">
-        <v>0</v>
-      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
-      <c r="M403" t="n">
-        <v>1</v>
-      </c>
-      <c r="N403" t="inlineStr"/>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -14968,16 +13735,13 @@
       <c r="H404" t="n">
         <v>0</v>
       </c>
-      <c r="I404" t="n">
-        <v>0</v>
-      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
-      <c r="M404" t="n">
-        <v>1</v>
-      </c>
-      <c r="N404" t="inlineStr"/>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -15004,16 +13768,13 @@
       <c r="H405" t="n">
         <v>0</v>
       </c>
-      <c r="I405" t="n">
-        <v>0</v>
-      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
-      <c r="M405" t="n">
-        <v>1</v>
-      </c>
-      <c r="N405" t="inlineStr"/>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -15040,16 +13801,13 @@
       <c r="H406" t="n">
         <v>0</v>
       </c>
-      <c r="I406" t="n">
-        <v>0</v>
-      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
-      <c r="M406" t="n">
-        <v>1</v>
-      </c>
-      <c r="N406" t="inlineStr"/>
+      <c r="L406" t="n">
+        <v>1</v>
+      </c>
+      <c r="M406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -15076,16 +13834,13 @@
       <c r="H407" t="n">
         <v>0</v>
       </c>
-      <c r="I407" t="n">
-        <v>0</v>
-      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
-      <c r="M407" t="n">
-        <v>1</v>
-      </c>
-      <c r="N407" t="inlineStr"/>
+      <c r="L407" t="n">
+        <v>1</v>
+      </c>
+      <c r="M407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -15112,16 +13867,13 @@
       <c r="H408" t="n">
         <v>0</v>
       </c>
-      <c r="I408" t="n">
-        <v>0</v>
-      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
-      <c r="M408" t="n">
-        <v>1</v>
-      </c>
-      <c r="N408" t="inlineStr"/>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
+      <c r="M408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -15148,16 +13900,13 @@
       <c r="H409" t="n">
         <v>0</v>
       </c>
-      <c r="I409" t="n">
-        <v>0</v>
-      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
-      <c r="M409" t="n">
-        <v>1</v>
-      </c>
-      <c r="N409" t="inlineStr"/>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -15184,16 +13933,13 @@
       <c r="H410" t="n">
         <v>0</v>
       </c>
-      <c r="I410" t="n">
-        <v>0</v>
-      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
-      <c r="M410" t="n">
-        <v>1</v>
-      </c>
-      <c r="N410" t="inlineStr"/>
+      <c r="L410" t="n">
+        <v>1</v>
+      </c>
+      <c r="M410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -15220,16 +13966,13 @@
       <c r="H411" t="n">
         <v>0</v>
       </c>
-      <c r="I411" t="n">
-        <v>0</v>
-      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
-      <c r="M411" t="n">
-        <v>1</v>
-      </c>
-      <c r="N411" t="inlineStr"/>
+      <c r="L411" t="n">
+        <v>1</v>
+      </c>
+      <c r="M411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -15256,16 +13999,13 @@
       <c r="H412" t="n">
         <v>0</v>
       </c>
-      <c r="I412" t="n">
-        <v>0</v>
-      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
-      <c r="M412" t="n">
-        <v>1</v>
-      </c>
-      <c r="N412" t="inlineStr"/>
+      <c r="L412" t="n">
+        <v>1</v>
+      </c>
+      <c r="M412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -15292,16 +14032,13 @@
       <c r="H413" t="n">
         <v>0</v>
       </c>
-      <c r="I413" t="n">
-        <v>0</v>
-      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
-      <c r="M413" t="n">
-        <v>1</v>
-      </c>
-      <c r="N413" t="inlineStr"/>
+      <c r="L413" t="n">
+        <v>1</v>
+      </c>
+      <c r="M413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -15328,16 +14065,13 @@
       <c r="H414" t="n">
         <v>0</v>
       </c>
-      <c r="I414" t="n">
-        <v>0</v>
-      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
-      <c r="M414" t="n">
-        <v>1</v>
-      </c>
-      <c r="N414" t="inlineStr"/>
+      <c r="L414" t="n">
+        <v>1</v>
+      </c>
+      <c r="M414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -15364,16 +14098,13 @@
       <c r="H415" t="n">
         <v>0</v>
       </c>
-      <c r="I415" t="n">
-        <v>0</v>
-      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
-      <c r="M415" t="n">
-        <v>1</v>
-      </c>
-      <c r="N415" t="inlineStr"/>
+      <c r="L415" t="n">
+        <v>1</v>
+      </c>
+      <c r="M415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -15400,16 +14131,13 @@
       <c r="H416" t="n">
         <v>0</v>
       </c>
-      <c r="I416" t="n">
-        <v>0</v>
-      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
-      <c r="M416" t="n">
-        <v>1</v>
-      </c>
-      <c r="N416" t="inlineStr"/>
+      <c r="L416" t="n">
+        <v>1</v>
+      </c>
+      <c r="M416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -15436,16 +14164,13 @@
       <c r="H417" t="n">
         <v>0</v>
       </c>
-      <c r="I417" t="n">
-        <v>0</v>
-      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
-      <c r="M417" t="n">
-        <v>1</v>
-      </c>
-      <c r="N417" t="inlineStr"/>
+      <c r="L417" t="n">
+        <v>1</v>
+      </c>
+      <c r="M417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -15472,16 +14197,13 @@
       <c r="H418" t="n">
         <v>0</v>
       </c>
-      <c r="I418" t="n">
-        <v>0</v>
-      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
-      <c r="M418" t="n">
-        <v>1</v>
-      </c>
-      <c r="N418" t="inlineStr"/>
+      <c r="L418" t="n">
+        <v>1</v>
+      </c>
+      <c r="M418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -15508,16 +14230,13 @@
       <c r="H419" t="n">
         <v>0</v>
       </c>
-      <c r="I419" t="n">
-        <v>0</v>
-      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
-      <c r="M419" t="n">
-        <v>1</v>
-      </c>
-      <c r="N419" t="inlineStr"/>
+      <c r="L419" t="n">
+        <v>1</v>
+      </c>
+      <c r="M419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -15544,16 +14263,13 @@
       <c r="H420" t="n">
         <v>0</v>
       </c>
-      <c r="I420" t="n">
-        <v>0</v>
-      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
-      <c r="M420" t="n">
-        <v>1</v>
-      </c>
-      <c r="N420" t="inlineStr"/>
+      <c r="L420" t="n">
+        <v>1</v>
+      </c>
+      <c r="M420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -15580,16 +14296,13 @@
       <c r="H421" t="n">
         <v>0</v>
       </c>
-      <c r="I421" t="n">
-        <v>0</v>
-      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
-      <c r="M421" t="n">
-        <v>1</v>
-      </c>
-      <c r="N421" t="inlineStr"/>
+      <c r="L421" t="n">
+        <v>1</v>
+      </c>
+      <c r="M421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -15616,18 +14329,15 @@
       <c r="H422" t="n">
         <v>0</v>
       </c>
-      <c r="I422" t="n">
-        <v>0</v>
-      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
-      <c r="M422" t="n">
-        <v>1</v>
-      </c>
-      <c r="N422" t="inlineStr"/>
+      <c r="L422" t="n">
+        <v>1</v>
+      </c>
+      <c r="M422" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest BTT.xlsx
+++ b/BackTest/2020-01-15 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-24966651.61265028</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-23084450.16115028</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0.3524</v>
@@ -521,9 +521,11 @@
         <v>-23078988.54975028</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3532</v>
+      </c>
       <c r="J4" t="n">
         <v>0.3524</v>
       </c>
@@ -560,9 +562,11 @@
         <v>-23767184.92175028</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3578</v>
+      </c>
       <c r="J5" t="n">
         <v>0.3524</v>
       </c>
@@ -599,10 +603,14 @@
         <v>-23716051.80665028</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3558</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3558</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -632,11 +640,19 @@
         <v>-23714287.03765028</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.3562</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3558</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -665,11 +681,19 @@
         <v>-23714287.03765028</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3558</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -698,10 +722,14 @@
         <v>-23712326.18325027</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.358</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -731,11 +759,19 @@
         <v>-23710737.89115027</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3584</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -767,8 +803,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -1589,7 +1631,7 @@
         <v>52801208.88225808</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1622,7 +1664,7 @@
         <v>60350263.05425808</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1655,7 +1697,7 @@
         <v>60350263.05425808</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1688,7 +1730,7 @@
         <v>57834061.21255808</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1721,7 +1763,7 @@
         <v>60158564.52355807</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1853,7 +1895,7 @@
         <v>70216132.46145807</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1886,7 +1928,7 @@
         <v>70216132.46145807</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1919,7 +1961,7 @@
         <v>64414137.25685807</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -3404,7 +3446,7 @@
         <v>29114715.57045805</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3437,7 +3479,7 @@
         <v>29112215.57045805</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3470,7 +3512,7 @@
         <v>46502739.54445805</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3503,7 +3545,7 @@
         <v>46508024.43695804</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3536,7 +3578,7 @@
         <v>46510673.44358055</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3569,7 +3611,7 @@
         <v>43507116.34628055</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3602,7 +3644,7 @@
         <v>43507116.34628055</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3701,7 +3743,7 @@
         <v>42795987.34628055</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4295,7 +4337,7 @@
         <v>76594530.11023556</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4361,7 +4403,7 @@
         <v>76593222.23683555</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4394,7 +4436,7 @@
         <v>79549853.09023556</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4427,7 +4469,7 @@
         <v>74999193.89463556</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4460,7 +4502,7 @@
         <v>76129083.84963556</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4592,7 +4634,7 @@
         <v>81620252.52264169</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4625,7 +4667,7 @@
         <v>81620252.52264169</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4658,7 +4700,7 @@
         <v>63250786.5129891</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4691,7 +4733,7 @@
         <v>63250786.5129891</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4724,7 +4766,7 @@
         <v>63249475.89698911</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4757,7 +4799,7 @@
         <v>65363105.3307891</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4790,7 +4832,7 @@
         <v>65360481.1331891</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4823,7 +4865,7 @@
         <v>65630317.9381891</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4856,7 +4898,7 @@
         <v>65751576.2513891</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4889,7 +4931,7 @@
         <v>64669863.5816891</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4922,7 +4964,7 @@
         <v>63921773.7282891</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4955,7 +4997,7 @@
         <v>63701819.9824891</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4988,7 +5030,7 @@
         <v>63697528.9824891</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5021,7 +5063,7 @@
         <v>62919261.1484891</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5054,7 +5096,7 @@
         <v>62917929.1484891</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5087,7 +5129,7 @@
         <v>62565036.3087891</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5120,7 +5162,7 @@
         <v>85637797.1124891</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5153,7 +5195,7 @@
         <v>85476797.1124891</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5186,7 +5228,7 @@
         <v>85889103.8684891</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5219,7 +5261,7 @@
         <v>87995210.5200891</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5252,7 +5294,7 @@
         <v>79896182.07678911</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5285,7 +5327,7 @@
         <v>81096182.07678911</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5318,7 +5360,7 @@
         <v>80748721.00526629</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5747,7 +5789,7 @@
         <v>49797779.25653383</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5780,7 +5822,7 @@
         <v>48679634.80473383</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5813,7 +5855,7 @@
         <v>48679634.80473383</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5846,7 +5888,7 @@
         <v>48961902.80473383</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5879,7 +5921,7 @@
         <v>49816199.98543382</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5912,7 +5954,7 @@
         <v>49696520.62273382</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5945,7 +5987,7 @@
         <v>10398703.33623382</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5978,7 +6020,7 @@
         <v>11854127.61103383</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6011,7 +6053,7 @@
         <v>12596792.96973382</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6044,7 +6086,7 @@
         <v>12596792.96973382</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7826,7 +7868,7 @@
         <v>51370517.18343382</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7859,7 +7901,7 @@
         <v>51370517.18343382</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7892,7 +7934,7 @@
         <v>49670519.88923382</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7925,7 +7967,7 @@
         <v>48375895.67553382</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7958,7 +8000,7 @@
         <v>48328089.67333382</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7991,7 +8033,7 @@
         <v>48316690.65323383</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8024,7 +8066,7 @@
         <v>48334726.42543383</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8057,7 +8099,7 @@
         <v>48352718.42553383</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8090,7 +8132,7 @@
         <v>52374813.53993383</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8123,7 +8165,7 @@
         <v>52706603.30923383</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8156,7 +8198,7 @@
         <v>46111825.09523383</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8189,7 +8231,7 @@
         <v>46113272.09523383</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8222,7 +8264,7 @@
         <v>39363977.64903383</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8255,7 +8297,7 @@
         <v>39365331.64903383</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8288,7 +8330,7 @@
         <v>39255253.65703383</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8321,7 +8363,7 @@
         <v>39505253.65703383</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8354,7 +8396,7 @@
         <v>45858210.13953383</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8387,7 +8429,7 @@
         <v>45864320.13953383</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8420,7 +8462,7 @@
         <v>45333816.16083384</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8453,7 +8495,7 @@
         <v>45167921.27613384</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8486,7 +8528,7 @@
         <v>45297470.37053384</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8519,7 +8561,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8552,7 +8594,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8585,7 +8627,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8618,7 +8660,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8651,7 +8693,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8684,7 +8726,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8717,7 +8759,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8750,7 +8792,7 @@
         <v>45977434.43113384</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8783,7 +8825,7 @@
         <v>44638233.58604667</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8816,7 +8858,7 @@
         <v>35192834.55794667</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8849,7 +8891,7 @@
         <v>35205408.54804667</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8882,7 +8924,7 @@
         <v>33199983.23034667</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8915,7 +8957,7 @@
         <v>31444904.07844667</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8948,7 +8990,7 @@
         <v>32206445.02924667</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8981,7 +9023,7 @@
         <v>34112867.35754667</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9014,7 +9056,7 @@
         <v>33579534.02424667</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9047,7 +9089,7 @@
         <v>33671769.30034667</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9080,7 +9122,7 @@
         <v>33664489.92697854</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9113,7 +9155,7 @@
         <v>33544047.92697854</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9146,7 +9188,7 @@
         <v>31760926.28377854</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9179,7 +9221,7 @@
         <v>33349391.56657854</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9212,7 +9254,7 @@
         <v>33438730.55057854</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9245,7 +9287,7 @@
         <v>33438730.55057854</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9278,7 +9320,7 @@
         <v>33438730.55057854</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9311,7 +9353,7 @@
         <v>33438730.55057854</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9344,7 +9386,7 @@
         <v>33438730.55057854</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9377,7 +9419,7 @@
         <v>33438730.55057854</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9410,7 +9452,7 @@
         <v>33438730.55057854</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9443,7 +9485,7 @@
         <v>33438730.55057854</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9476,7 +9518,7 @@
         <v>31908961.22347854</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9509,7 +9551,7 @@
         <v>30375891.60527854</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9542,7 +9584,7 @@
         <v>30636247.94677854</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9575,7 +9617,7 @@
         <v>30636247.94677854</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9608,7 +9650,7 @@
         <v>30641963.21467854</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9641,7 +9683,7 @@
         <v>30641963.21467854</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9674,7 +9716,7 @@
         <v>33200185.06697854</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9707,7 +9749,7 @@
         <v>33200185.06697854</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9740,7 +9782,7 @@
         <v>33200185.06697854</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9773,7 +9815,7 @@
         <v>32456098.52287854</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9806,7 +9848,7 @@
         <v>32458201.01797853</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9839,7 +9881,7 @@
         <v>29453075.19247853</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9872,7 +9914,7 @@
         <v>27767645.89327854</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9905,7 +9947,7 @@
         <v>25449298.30067854</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9938,7 +9980,7 @@
         <v>25449298.30067854</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9971,7 +10013,7 @@
         <v>25449298.30067854</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10004,7 +10046,7 @@
         <v>28669422.83137853</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10037,7 +10079,7 @@
         <v>28881470.89447853</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10070,7 +10112,7 @@
         <v>30187107.32687853</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10103,7 +10145,7 @@
         <v>31697948.51017853</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10136,7 +10178,7 @@
         <v>31689237.51017853</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10169,7 +10211,7 @@
         <v>31689237.51017853</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10202,7 +10244,7 @@
         <v>22082065.77797853</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10235,7 +10277,7 @@
         <v>22937916.74367853</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10268,7 +10310,7 @@
         <v>22858074.50407853</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10301,7 +10343,7 @@
         <v>22744967.52497853</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10334,7 +10376,7 @@
         <v>22744967.52497853</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10367,7 +10409,7 @@
         <v>22849967.52497853</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10400,7 +10442,7 @@
         <v>22588842.64097853</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10433,7 +10475,7 @@
         <v>22588842.64097853</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10466,7 +10508,7 @@
         <v>20715214.77687854</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10499,7 +10541,7 @@
         <v>20713797.77687854</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10532,7 +10574,7 @@
         <v>20712350.77687854</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10565,7 +10607,7 @@
         <v>20712350.77687854</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10598,7 +10640,7 @@
         <v>1681782.465278536</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10631,7 +10673,7 @@
         <v>-947615.669521464</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10664,7 +10706,7 @@
         <v>-947615.669521464</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10697,7 +10739,7 @@
         <v>-947615.669521464</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10730,7 +10772,7 @@
         <v>-947615.669521464</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10763,7 +10805,7 @@
         <v>-3480655.600821464</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10796,7 +10838,7 @@
         <v>-2131940.725821464</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10829,7 +10871,7 @@
         <v>-2430450.283921464</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10862,7 +10904,7 @@
         <v>1085850.176778536</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10895,7 +10937,7 @@
         <v>2487.452078536386</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10928,7 +10970,7 @@
         <v>-5575890.124221464</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10961,7 +11003,7 @@
         <v>-5375890.124221464</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10994,7 +11036,7 @@
         <v>1883319.567678536</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11027,7 +11069,7 @@
         <v>5355279.914678536</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11060,7 +11102,7 @@
         <v>-108970.4487214638</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11093,7 +11135,7 @@
         <v>423794.6018785362</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11126,7 +11168,7 @@
         <v>423794.6018785362</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11159,7 +11201,7 @@
         <v>423794.6018785362</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11258,7 +11300,7 @@
         <v>-7593902.455821463</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11291,7 +11333,7 @@
         <v>-7593902.455821463</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11324,7 +11366,7 @@
         <v>-5962331.270521463</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11357,7 +11399,7 @@
         <v>-5962331.270521463</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11390,7 +11432,7 @@
         <v>-5962331.270521463</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11654,7 +11696,7 @@
         <v>-12467332.54234548</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11687,7 +11729,7 @@
         <v>-12467332.54234548</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11720,7 +11762,7 @@
         <v>-12625910.54234548</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -14338,6 +14380,6 @@
       <c r="M422" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest BTT.xlsx
+++ b/BackTest/2020-01-15 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-24966651.61265028</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -521,11 +521,9 @@
         <v>-23078988.54975028</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>0.3524</v>
       </c>
@@ -562,11 +560,9 @@
         <v>-23767184.92175028</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.3578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>0.3524</v>
       </c>
@@ -603,14 +599,10 @@
         <v>-23716051.80665028</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.3558</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.3558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -646,13 +638,9 @@
         <v>0.3562</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3558</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.3562</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,13 +669,11 @@
         <v>-23714287.03765028</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>0.3558</v>
+        <v>0.3562</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -722,15 +708,17 @@
         <v>-23712326.18325027</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>0.3562</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -759,19 +747,11 @@
         <v>-23710737.89115027</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.3584</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -803,14 +783,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -1664,7 +1638,7 @@
         <v>60350263.05425808</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1697,7 +1671,7 @@
         <v>60350263.05425808</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1730,7 +1704,7 @@
         <v>57834061.21255808</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1763,7 +1737,7 @@
         <v>60158564.52355807</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1796,7 +1770,7 @@
         <v>61583453.09315807</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1829,7 +1803,7 @@
         <v>64258044.07035808</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1862,7 +1836,7 @@
         <v>64756056.91025808</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1895,7 +1869,7 @@
         <v>70216132.46145807</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1928,7 +1902,7 @@
         <v>70216132.46145807</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1961,7 +1935,7 @@
         <v>64414137.25685807</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1994,7 +1968,7 @@
         <v>65527501.73785807</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2126,7 +2100,7 @@
         <v>81910200.43955807</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2192,7 +2166,7 @@
         <v>100819098.3009581</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -3446,7 +3420,7 @@
         <v>29114715.57045805</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3479,7 +3453,7 @@
         <v>29112215.57045805</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3512,7 +3486,7 @@
         <v>46502739.54445805</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3545,7 +3519,7 @@
         <v>46508024.43695804</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3578,7 +3552,7 @@
         <v>46510673.44358055</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3611,7 +3585,7 @@
         <v>43507116.34628055</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3644,7 +3618,7 @@
         <v>43507116.34628055</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3743,7 +3717,7 @@
         <v>42795987.34628055</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4634,7 +4608,7 @@
         <v>81620252.52264169</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4667,7 +4641,7 @@
         <v>81620252.52264169</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4700,7 +4674,7 @@
         <v>63250786.5129891</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4733,7 +4707,7 @@
         <v>63250786.5129891</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4766,7 +4740,7 @@
         <v>63249475.89698911</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4799,7 +4773,7 @@
         <v>65363105.3307891</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4832,7 +4806,7 @@
         <v>65360481.1331891</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4865,7 +4839,7 @@
         <v>65630317.9381891</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4898,7 +4872,7 @@
         <v>65751576.2513891</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4931,7 +4905,7 @@
         <v>64669863.5816891</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4964,7 +4938,7 @@
         <v>63921773.7282891</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4997,7 +4971,7 @@
         <v>63701819.9824891</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5030,7 +5004,7 @@
         <v>63697528.9824891</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5063,7 +5037,7 @@
         <v>62919261.1484891</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5096,7 +5070,7 @@
         <v>62917929.1484891</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5129,7 +5103,7 @@
         <v>62565036.3087891</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5162,7 +5136,7 @@
         <v>85637797.1124891</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5195,7 +5169,7 @@
         <v>85476797.1124891</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5228,7 +5202,7 @@
         <v>85889103.8684891</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5261,7 +5235,7 @@
         <v>87995210.5200891</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5294,7 +5268,7 @@
         <v>79896182.07678911</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5327,7 +5301,7 @@
         <v>81096182.07678911</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5360,7 +5334,7 @@
         <v>80748721.00526629</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5789,7 +5763,7 @@
         <v>49797779.25653383</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5822,7 +5796,7 @@
         <v>48679634.80473383</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5855,7 +5829,7 @@
         <v>48679634.80473383</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5888,7 +5862,7 @@
         <v>48961902.80473383</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5921,7 +5895,7 @@
         <v>49816199.98543382</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5954,7 +5928,7 @@
         <v>49696520.62273382</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6020,7 +5994,7 @@
         <v>11854127.61103383</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6053,7 +6027,7 @@
         <v>12596792.96973382</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6086,7 +6060,7 @@
         <v>12596792.96973382</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7934,7 +7908,7 @@
         <v>49670519.88923382</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8000,7 +7974,7 @@
         <v>48328089.67333382</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8033,7 +8007,7 @@
         <v>48316690.65323383</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8066,7 +8040,7 @@
         <v>48334726.42543383</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8099,7 +8073,7 @@
         <v>48352718.42553383</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8132,7 +8106,7 @@
         <v>52374813.53993383</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8165,7 +8139,7 @@
         <v>52706603.30923383</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8198,7 +8172,7 @@
         <v>46111825.09523383</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8231,7 +8205,7 @@
         <v>46113272.09523383</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8264,7 +8238,7 @@
         <v>39363977.64903383</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8297,7 +8271,7 @@
         <v>39365331.64903383</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8330,7 +8304,7 @@
         <v>39255253.65703383</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8363,7 +8337,7 @@
         <v>39505253.65703383</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8396,7 +8370,7 @@
         <v>45858210.13953383</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8429,7 +8403,7 @@
         <v>45864320.13953383</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8462,7 +8436,7 @@
         <v>45333816.16083384</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8495,7 +8469,7 @@
         <v>45167921.27613384</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8528,7 +8502,7 @@
         <v>45297470.37053384</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8561,7 +8535,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8594,7 +8568,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8627,7 +8601,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8660,7 +8634,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8693,7 +8667,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8726,7 +8700,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8759,7 +8733,7 @@
         <v>45971363.37053384</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8792,7 +8766,7 @@
         <v>45977434.43113384</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8825,7 +8799,7 @@
         <v>44638233.58604667</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8858,7 +8832,7 @@
         <v>35192834.55794667</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8891,7 +8865,7 @@
         <v>35205408.54804667</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8924,7 +8898,7 @@
         <v>33199983.23034667</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8957,7 +8931,7 @@
         <v>31444904.07844667</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8990,7 +8964,7 @@
         <v>32206445.02924667</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9023,7 +8997,7 @@
         <v>34112867.35754667</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9056,7 +9030,7 @@
         <v>33579534.02424667</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9089,7 +9063,7 @@
         <v>33671769.30034667</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9122,7 +9096,7 @@
         <v>33664489.92697854</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9155,7 +9129,7 @@
         <v>33544047.92697854</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9188,7 +9162,7 @@
         <v>31760926.28377854</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9221,7 +9195,7 @@
         <v>33349391.56657854</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9254,7 +9228,7 @@
         <v>33438730.55057854</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9287,7 +9261,7 @@
         <v>33438730.55057854</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9320,7 +9294,7 @@
         <v>33438730.55057854</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9353,7 +9327,7 @@
         <v>33438730.55057854</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9386,7 +9360,7 @@
         <v>33438730.55057854</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9419,7 +9393,7 @@
         <v>33438730.55057854</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9452,7 +9426,7 @@
         <v>33438730.55057854</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9485,7 +9459,7 @@
         <v>33438730.55057854</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9518,7 +9492,7 @@
         <v>31908961.22347854</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9551,7 +9525,7 @@
         <v>30375891.60527854</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9584,7 +9558,7 @@
         <v>30636247.94677854</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9617,7 +9591,7 @@
         <v>30636247.94677854</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9650,7 +9624,7 @@
         <v>30641963.21467854</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9683,7 +9657,7 @@
         <v>30641963.21467854</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9716,7 +9690,7 @@
         <v>33200185.06697854</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9749,7 +9723,7 @@
         <v>33200185.06697854</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9782,7 +9756,7 @@
         <v>33200185.06697854</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9815,7 +9789,7 @@
         <v>32456098.52287854</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9848,7 +9822,7 @@
         <v>32458201.01797853</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9881,7 +9855,7 @@
         <v>29453075.19247853</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9914,7 +9888,7 @@
         <v>27767645.89327854</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9947,7 +9921,7 @@
         <v>25449298.30067854</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9980,7 +9954,7 @@
         <v>25449298.30067854</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10013,7 +9987,7 @@
         <v>25449298.30067854</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10046,7 +10020,7 @@
         <v>28669422.83137853</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10079,7 +10053,7 @@
         <v>28881470.89447853</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10112,7 +10086,7 @@
         <v>30187107.32687853</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10145,7 +10119,7 @@
         <v>31697948.51017853</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10178,7 +10152,7 @@
         <v>31689237.51017853</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10211,7 +10185,7 @@
         <v>31689237.51017853</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10244,7 +10218,7 @@
         <v>22082065.77797853</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10277,7 +10251,7 @@
         <v>22937916.74367853</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10310,7 +10284,7 @@
         <v>22858074.50407853</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10343,7 +10317,7 @@
         <v>22744967.52497853</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10376,7 +10350,7 @@
         <v>22744967.52497853</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10409,7 +10383,7 @@
         <v>22849967.52497853</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10442,7 +10416,7 @@
         <v>22588842.64097853</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10475,7 +10449,7 @@
         <v>22588842.64097853</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10508,7 +10482,7 @@
         <v>20715214.77687854</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10541,7 +10515,7 @@
         <v>20713797.77687854</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10574,7 +10548,7 @@
         <v>20712350.77687854</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10607,7 +10581,7 @@
         <v>20712350.77687854</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10640,7 +10614,7 @@
         <v>1681782.465278536</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10673,7 +10647,7 @@
         <v>-947615.669521464</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10706,7 +10680,7 @@
         <v>-947615.669521464</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10739,7 +10713,7 @@
         <v>-947615.669521464</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10772,7 +10746,7 @@
         <v>-947615.669521464</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10805,7 +10779,7 @@
         <v>-3480655.600821464</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10838,7 +10812,7 @@
         <v>-2131940.725821464</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10871,7 +10845,7 @@
         <v>-2430450.283921464</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10904,7 +10878,7 @@
         <v>1085850.176778536</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10937,7 +10911,7 @@
         <v>2487.452078536386</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10970,7 +10944,7 @@
         <v>-5575890.124221464</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11003,7 +10977,7 @@
         <v>-5375890.124221464</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11036,7 +11010,7 @@
         <v>1883319.567678536</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11069,7 +11043,7 @@
         <v>5355279.914678536</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11102,7 +11076,7 @@
         <v>-108970.4487214638</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11135,7 +11109,7 @@
         <v>423794.6018785362</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11168,7 +11142,7 @@
         <v>423794.6018785362</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11201,7 +11175,7 @@
         <v>423794.6018785362</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11300,7 +11274,7 @@
         <v>-7593902.455821463</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11333,7 +11307,7 @@
         <v>-7593902.455821463</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11366,7 +11340,7 @@
         <v>-5962331.270521463</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11399,7 +11373,7 @@
         <v>-5962331.270521463</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11432,7 +11406,7 @@
         <v>-5962331.270521463</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11696,7 +11670,7 @@
         <v>-12467332.54234548</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11729,7 +11703,7 @@
         <v>-12467332.54234548</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11762,7 +11736,7 @@
         <v>-12625910.54234548</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13016,11 +12990,17 @@
         <v>-52338994.87264548</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>0.3785</v>
+      </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13053,7 +13033,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13086,7 +13070,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13119,7 +13107,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13152,7 +13144,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13185,7 +13181,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13218,7 +13218,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13251,7 +13255,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13284,7 +13292,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13317,7 +13329,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13350,7 +13366,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13383,7 +13403,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13416,7 +13440,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13449,7 +13477,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13482,7 +13514,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13515,7 +13551,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13548,7 +13588,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13581,7 +13625,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13614,7 +13662,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13647,7 +13699,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13680,7 +13736,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13709,11 +13769,17 @@
         <v>-48514360.45370801</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0.379</v>
+      </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13742,11 +13808,17 @@
         <v>-48491682.49600801</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0.3814</v>
+      </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13775,11 +13847,17 @@
         <v>-51738066.35060801</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0.3815</v>
+      </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13808,11 +13886,17 @@
         <v>-49229664.91710801</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0.3814</v>
+      </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13841,11 +13925,17 @@
         <v>-42938144.679308</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.3826</v>
+      </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13878,7 +13968,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13911,7 +14005,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13940,11 +14038,17 @@
         <v>-33570692.950208</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0.385</v>
+      </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13977,7 +14081,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14010,7 +14118,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14043,7 +14155,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14072,11 +14188,17 @@
         <v>-25418864.03463528</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0.383</v>
+      </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14109,7 +14231,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14142,7 +14268,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14175,7 +14305,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14208,7 +14342,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14241,7 +14379,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14274,7 +14416,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14307,7 +14453,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14340,7 +14490,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14373,13 +14527,17 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
       <c r="M422" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest BTT.xlsx
+++ b/BackTest/2020-01-15 BackTest BTT.xlsx
@@ -451,7 +451,7 @@
         <v>-24966651.61265028</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -521,9 +521,11 @@
         <v>-23078988.54975028</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3532</v>
+      </c>
       <c r="J4" t="n">
         <v>0.3524</v>
       </c>
@@ -560,9 +562,11 @@
         <v>-23767184.92175028</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3578</v>
+      </c>
       <c r="J5" t="n">
         <v>0.3524</v>
       </c>
@@ -599,10 +603,14 @@
         <v>-23716051.80665028</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3558</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3558</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -638,9 +646,13 @@
         <v>0.3562</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3562</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>0.3558</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -673,7 +685,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>0.3562</v>
+        <v>0.3558</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -711,14 +723,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>0.3562</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>60350263.05425808</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1671,7 +1677,7 @@
         <v>60350263.05425808</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1704,7 +1710,7 @@
         <v>57834061.21255808</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1737,7 +1743,7 @@
         <v>60158564.52355807</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1770,7 +1776,7 @@
         <v>61583453.09315807</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1803,7 +1809,7 @@
         <v>64258044.07035808</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1836,7 +1842,7 @@
         <v>64756056.91025808</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1869,7 +1875,7 @@
         <v>70216132.46145807</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1902,7 +1908,7 @@
         <v>70216132.46145807</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1935,7 +1941,7 @@
         <v>64414137.25685807</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1968,7 +1974,7 @@
         <v>65527501.73785807</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2100,7 +2106,7 @@
         <v>81910200.43955807</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2166,7 +2172,7 @@
         <v>100819098.3009581</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -4476,7 +4482,7 @@
         <v>76129083.84963556</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4509,7 +4515,7 @@
         <v>77440395.02793555</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4542,7 +4548,7 @@
         <v>82079601.07350276</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4575,7 +4581,7 @@
         <v>81867663.95780276</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4608,7 +4614,7 @@
         <v>81620252.52264169</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4641,7 +4647,7 @@
         <v>81620252.52264169</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4674,7 +4680,7 @@
         <v>63250786.5129891</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4707,7 +4713,7 @@
         <v>63250786.5129891</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4740,7 +4746,7 @@
         <v>63249475.89698911</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4773,7 +4779,7 @@
         <v>65363105.3307891</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4806,7 +4812,7 @@
         <v>65360481.1331891</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -7776,7 +7782,7 @@
         <v>50380453.08463382</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7809,7 +7815,7 @@
         <v>53790867.15743382</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7842,7 +7848,7 @@
         <v>51370517.18343382</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7875,7 +7881,7 @@
         <v>51370517.18343382</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7908,7 +7914,7 @@
         <v>49670519.88923382</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8172,7 +8178,7 @@
         <v>46111825.09523383</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8238,7 +8244,7 @@
         <v>39363977.64903383</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8436,7 +8442,7 @@
         <v>45333816.16083384</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8469,7 +8475,7 @@
         <v>45167921.27613384</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -12990,17 +12996,11 @@
         <v>-52338994.87264548</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>0.3785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13033,11 +13033,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13070,11 +13066,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13107,11 +13099,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13144,11 +13132,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13181,11 +13165,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13218,11 +13198,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +13231,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13292,11 +13264,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13329,11 +13297,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13366,11 +13330,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13403,11 +13363,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13440,11 +13396,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13477,11 +13429,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13514,11 +13462,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13551,11 +13495,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13588,11 +13528,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13625,11 +13561,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13662,11 +13594,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13699,11 +13627,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13736,11 +13660,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13769,17 +13689,11 @@
         <v>-48514360.45370801</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>0.379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13808,17 +13722,11 @@
         <v>-48491682.49600801</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>0.3814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13847,17 +13755,11 @@
         <v>-51738066.35060801</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>0.3815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13886,17 +13788,11 @@
         <v>-49229664.91710801</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>0.3814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13925,17 +13821,11 @@
         <v>-42938144.679308</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>0.3826</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13968,11 +13858,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14005,11 +13891,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14038,17 +13920,11 @@
         <v>-33570692.950208</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>0.385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14081,11 +13957,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14118,11 +13990,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14155,11 +14023,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14188,17 +14052,11 @@
         <v>-25418864.03463528</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>0.383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14231,11 +14089,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14268,11 +14122,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14305,11 +14155,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14342,11 +14188,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14379,11 +14221,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14416,11 +14254,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14453,11 +14287,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14490,11 +14320,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14527,11 +14353,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
